--- a/biology/Microbiologie/Cyttarocylididae/Cyttarocylididae.xlsx
+++ b/biology/Microbiologie/Cyttarocylididae/Cyttarocylididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cyttarocylididae sont une famille de Ciliés de la classe des Oligotrichea et de l’ordre des Choreotrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Cyttarocylis, dérivé du grec κυτταρ / kyttar, « petite alvéole », et 
 de κύκλος / kýklos, cercle, littéralement « alvéoles disposées en cercle », en référence à la structure alvéolée de la loge (locula) de l'organisme.
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En 1932 le biologiste japonais Yoshine Hada fait la description suivante de Cyttarocylis : 
-« Lorica (loge) constituée d'un col bas en forme d'entonnoir et d'une haute cuvette conique inversée dont les angles changent de 15° dans la moitié antérieure à 45° dans la région aborale, de longueur variant entre 1,8 à 2,2 diamètres oraux ; bord oral irrégulièrement denté ; col conique convexe (42°), 0,9 diamètres oraux en transdiamètre, de longueur allant de 0,06 de la longueur totale ; corne aborale courte, longueur 0,05 de la longueur totale, irrégulièrement effilée ; paroi pourvue d'un réticule polygonal comparativement plus grand. Longueur, 300 μm ; diamètre oral, 150 μm. Récolté en novembre ; rare[1]. »
+« Lorica (loge) constituée d'un col bas en forme d'entonnoir et d'une haute cuvette conique inversée dont les angles changent de 15° dans la moitié antérieure à 45° dans la région aborale, de longueur variant entre 1,8 à 2,2 diamètres oraux ; bord oral irrégulièrement denté ; col conique convexe (42°), 0,9 diamètres oraux en transdiamètre, de longueur allant de 0,06 de la longueur totale ; corne aborale courte, longueur 0,05 de la longueur totale, irrégulièrement effilée ; paroi pourvue d'un réticule polygonal comparativement plus grand. Longueur, 300 μm ; diamètre oral, 150 μm. Récolté en novembre ; rare. »
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cyttarocylididae ont une répartition mondiale[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cyttarocylididae ont une répartition mondiale.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des taxons genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (28 septembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (28 septembre 2022) :
 Cyttarocylis Fol, 1881  synonyme : Petalotricha  Kent, 1881
 			Petalotricha ampulla et P. spiralis.
 </t>
@@ -640,9 +660,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Cyttarocylididae[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Cyttarocylididae.
 </t>
         </is>
       </c>
